--- a/Шаблоны/pif_info.xlsx
+++ b/Шаблоны/pif_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\YandexDisk\Git\XBRL_SCHA_Prirost\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tov\YandexDisk-atovanchov\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE2D56A-7163-414B-9283-21B379BCA973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA4908-0FBA-49C2-8E56-4D262D242B74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="713" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЗПИФ_РПИ" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,16 @@
     <sheet name="ЗПИФ_Кубань" sheetId="8" r:id="rId6"/>
     <sheet name="ЗПИФ_ЦентрДевелопмент" sheetId="9" r:id="rId7"/>
     <sheet name="ЗПИФ_ВостокКапитал" sheetId="10" r:id="rId8"/>
-    <sheet name="ФИО" sheetId="11" r:id="rId9"/>
-    <sheet name="списки" sheetId="4" r:id="rId10"/>
+    <sheet name="ЗПИФ_КонтрактИнвест" sheetId="12" r:id="rId9"/>
+    <sheet name="ФИО" sheetId="11" r:id="rId10"/>
+    <sheet name="списки" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -261,6 +252,12 @@
   </si>
   <si>
     <t>42003810500070000112</t>
+  </si>
+  <si>
+    <t>40701810300000002124</t>
+  </si>
+  <si>
+    <t>ЗПИФ_КонтрактИнвест</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1438,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="ПИФ" displayName="ПИФ" ref="A1:B9" totalsRowShown="0" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="ПИФ" displayName="ПИФ" ref="A1:B10" totalsRowShown="0" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="пай" dataDxfId="7"/>
@@ -1762,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1890,11 +1887,86 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDDF9CB-1720-4413-A229-8F9D45D69845}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,6 +2044,14 @@
         <v>12</v>
       </c>
       <c r="B9" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2979,7 +3059,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,76 +3168,108 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDDF9CB-1720-4413-A229-8F9D45D69845}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85B4CC0-F4D9-45DD-AB57-DEB67EB98D2C}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>72</v>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <f>INDEX(ПИФ[пай],MATCH(B1,ПИФ[id],0))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
+        <v>7710198911</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
+      <c r="A5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23" t="str">
+        <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
+        <v>1027700373678</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="30"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="30"/>
     </row>
   </sheetData>
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{52B848E1-D07B-4C31-AFC2-517BF49E7AC9}">
+      <formula1>INDIRECT("ПИФ[id]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0F0E11B0-780E-43E5-A981-F3D6C0D0D034}">
+      <formula1>INDIRECT("СпецДеп[СпецДеп]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A11" xr:uid="{B99D7D9B-6EF1-4AFD-90DD-AEA33389A6DD}">
+      <formula1>INDIRECT("Тип_счета[тип_счета]")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Шаблоны/pif_info.xlsx
+++ b/Шаблоны/pif_info.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tov\YandexDisk-atovanchov\XBRL_SCHA_Prirost\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA4908-0FBA-49C2-8E56-4D262D242B74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410631CA-CBC5-487A-8E82-2079C934D4AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="713" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="713" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЗПИФ_РПИ" sheetId="1" r:id="rId1"/>
     <sheet name="ЗПИФ_АРС Капитал" sheetId="2" r:id="rId2"/>
     <sheet name="ЗПИФ_Дон" sheetId="5" r:id="rId3"/>
     <sheet name="ЗПИФ_Азов" sheetId="6" r:id="rId4"/>
-    <sheet name="ЗПИФ_Центр" sheetId="7" r:id="rId5"/>
+    <sheet name="ЗПИФ_Энергетический" sheetId="7" r:id="rId5"/>
     <sheet name="ЗПИФ_Кубань" sheetId="8" r:id="rId6"/>
     <sheet name="ЗПИФ_ЦентрДевелопмент" sheetId="9" r:id="rId7"/>
     <sheet name="ЗПИФ_ВостокКапитал" sheetId="10" r:id="rId8"/>
@@ -59,9 +59,6 @@
     <t>ЗПИФ_Азов</t>
   </si>
   <si>
-    <t>ЗПИФ_Центр</t>
-  </si>
-  <si>
     <t>ЗПИФ_Кубань</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>ЗПИФ_КонтрактИнвест</t>
+  </si>
+  <si>
+    <t>ЗПИФ_Энергетический</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1774,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>3</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -1817,26 +1817,26 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8"/>
     </row>
@@ -1902,58 +1902,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +1966,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B6" s="20">
         <v>6</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="20">
         <v>6</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="20">
         <v>6</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="20">
         <v>6</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="20">
         <v>6</v>
@@ -2057,33 +2057,33 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,10 +2091,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2102,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="25">
         <v>7708213619</v>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="28">
         <v>7705380065</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -2129,48 +2129,48 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2202,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>5</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2245,35 +2245,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9"/>
     </row>
@@ -2352,7 +2352,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>7</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2400,24 +2400,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>8</v>
@@ -2514,13 +2514,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2540,32 +2540,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2623,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152ED446-F84E-43AD-88BC-1F66A80FAF86}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,10 +2636,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2684,24 +2684,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2764,10 +2764,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2812,64 +2812,64 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2929,10 +2929,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -2977,40 +2977,40 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,10 +3071,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -3119,24 +3119,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85B4CC0-F4D9-45DD-AB57-DEB67EB98D2C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,10 +3183,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>INDEX(СпецДеп[СД_ИНН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="23" t="str">
         <f>INDEX(СпецДеп[СД_ОГРН],MATCH(B3,СпецДеп[СпецДеп],0))</f>
@@ -3226,24 +3226,24 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/Шаблоны/pif_info.xlsx
+++ b/Шаблоны/pif_info.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
   <si>
     <t xml:space="preserve">идентификатор фонда</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">42002810900070000506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42003810000070000120</t>
   </si>
   <si>
     <t xml:space="preserve">ЗПИФ_КонтрактИнвест</t>
@@ -715,7 +718,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.71"/>
@@ -844,7 +847,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.14"/>
@@ -852,58 +855,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +931,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.71"/>
@@ -936,10 +939,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +1011,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="25" t="n">
         <v>6</v>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,12 +1034,12 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>6</v>
@@ -1050,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="30" t="n">
         <v>7708213619</v>
@@ -1072,7 +1075,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="34" t="n">
         <v>7705380065</v>
@@ -1080,56 +1083,56 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1164,7 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.71"/>
@@ -1291,7 +1294,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -1443,7 +1446,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -1599,7 +1602,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -1739,7 +1742,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -1916,7 +1919,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -2071,10 +2074,10 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -2167,9 +2170,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2207,7 +2214,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.71"/>
@@ -2218,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,7 +2290,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
